--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,7 +455,7 @@
     <t>Person.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -530,7 +530,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -573,7 +573,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1243,7 +1243,7 @@
     <t>Person.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1327,7 +1327,7 @@
     <t>Person.link.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Person)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|Person|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -856,7 +856,7 @@
 </t>
   </si>
   <si>
-    <t>Le nom de famille (également nommé nom de naissance) ou le nom d'usage du professionnel.</t>
+    <t>Le nom civil (également nommé nom de naissance ou nom de famille).</t>
   </si>
   <si>
     <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
@@ -884,7 +884,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Prénom(s) déclarés à sa naissance du professionnel.</t>
+    <t>Prénom(s) civil(s) déclarés à la naissance du professionnel.</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -2438,7 +2438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>202</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>215</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>234</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>310</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>361</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>371</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>388</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>400</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>431</v>
       </c>
@@ -8814,12 +8814,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN62">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,9 +579,6 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>PersonnePhysique.langueParlee</t>
-  </si>
-  <si>
     <t>Person.text</t>
   </si>
   <si>
@@ -646,45 +643,26 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Person.extension:as-ext-person-nationality</t>
-  </si>
-  <si>
-    <t>as-ext-person-nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-nationality}
+    <t>Person.extension:as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t>as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
 </t>
   </si>
   <si>
-    <t>AS Person Nationality Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la nationalité du professionel (Person).</t>
+    <t>AS Person Birth Place Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>PersonnePhysique.paysNationalite</t>
-  </si>
-  <si>
-    <t>Person.extension:as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t>as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
-</t>
-  </si>
-  <si>
-    <t>AS Person Birth Place Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
-  </si>
-  <si>
     <t>PersonnePhysique.lieuNaissance</t>
   </si>
   <si>
@@ -868,7 +846,7 @@
     <t>HumanName.family</t>
   </si>
   <si>
-    <t>PersonnePhysique.nomUsage</t>
+    <t>PersonnePhysique.nomFamille</t>
   </si>
   <si>
     <t>./part[partType = FAM]</t>
@@ -896,7 +874,7 @@
     <t>HumanName.given</t>
   </si>
   <si>
-    <t>PersonnePhysique.prenomUsuel</t>
+    <t>PersonnePhysique.prenom</t>
   </si>
   <si>
     <t>./part[partType = GIV]</t>
@@ -1700,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3568,7 +3546,7 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3582,14 +3560,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3608,16 +3586,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3667,7 +3645,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3685,7 +3663,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3696,14 +3674,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3722,16 +3700,16 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3781,7 +3759,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3799,7 +3777,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3810,10 +3788,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3839,10 +3817,10 @@
         <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3891,7 +3869,7 @@
         <v>115</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3920,13 +3898,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3936,7 +3914,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>89</v>
@@ -3948,13 +3926,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4005,7 +3983,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4014,13 +3992,13 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4034,13 +4012,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -4062,13 +4040,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4119,7 +4097,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4128,64 +4106,66 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I22" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4233,7 +4213,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4242,16 +4222,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4262,14 +4242,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4282,25 +4262,23 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4349,7 +4327,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4361,27 +4339,27 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4392,29 +4370,31 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4463,7 +4443,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4481,21 +4461,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4509,29 +4489,25 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4579,50 +4555,50 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4634,15 +4610,17 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4679,31 +4657,31 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4720,21 +4698,23 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4746,17 +4726,15 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4793,16 +4771,16 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>116</v>
@@ -4823,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4834,14 +4812,12 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4856,22 +4832,26 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4895,13 +4875,11 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4919,39 +4897,39 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4968,25 +4946,25 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5011,11 +4989,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5033,7 +5013,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5051,25 +5031,25 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5091,17 +5071,15 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5149,7 +5127,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5164,35 +5142,35 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5207,13 +5185,13 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5263,13 +5241,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5278,35 +5256,35 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5321,14 +5299,12 @@
         <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>280</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5353,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5377,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5392,24 +5368,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5420,7 +5396,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5435,10 +5411,10 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5468,10 +5444,10 @@
         <v>155</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5489,7 +5465,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5504,24 +5480,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5532,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5544,16 +5520,18 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5577,13 +5555,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5601,13 +5579,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5619,21 +5597,21 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5644,10 +5622,10 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>77</v>
@@ -5656,17 +5634,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5715,13 +5695,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5733,21 +5713,21 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5758,32 +5738,28 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5831,50 +5807,50 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5886,15 +5862,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5931,31 +5909,31 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5972,21 +5950,23 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D38" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5998,17 +5978,15 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6045,16 +6023,16 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>116</v>
@@ -6075,7 +6053,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6086,23 +6064,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6111,16 +6087,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6147,13 +6123,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6171,39 +6147,39 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6226,16 +6202,20 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6259,13 +6239,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6283,7 +6263,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6292,7 +6272,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6301,21 +6281,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6323,7 +6303,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6332,25 +6312,25 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6375,13 +6355,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6399,7 +6379,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6417,21 +6397,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6448,26 +6428,24 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6491,13 +6469,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6533,21 +6511,21 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>350</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6570,17 +6548,15 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6629,7 +6605,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6647,21 +6623,21 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>106</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6675,7 +6651,7 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
@@ -6684,16 +6660,20 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6717,13 +6697,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6741,7 +6721,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6756,24 +6736,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>197</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6796,19 +6776,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6833,13 +6813,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6857,7 +6837,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6872,24 +6852,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6900,31 +6880,31 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6973,13 +6953,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6988,24 +6968,24 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7016,10 +6996,10 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>77</v>
@@ -7028,20 +7008,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7089,13 +7065,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7107,21 +7083,21 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>387</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7132,28 +7108,30 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7201,7 +7179,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7225,15 +7203,15 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
         <v>393</v>
       </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7247,26 +7225,26 @@
         <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7315,7 +7293,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7333,16 +7311,16 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM49" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>400</v>
       </c>
@@ -7358,16 +7336,16 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>401</v>
@@ -7379,9 +7357,7 @@
         <v>403</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7417,16 +7393,14 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>400</v>
@@ -7435,7 +7409,7 @@
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7450,7 +7424,7 @@
         <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7458,10 +7432,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7472,7 +7446,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7484,13 +7458,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>103</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
+        <v>104</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7529,35 +7503,37 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>412</v>
+        <v>106</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7568,21 +7544,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7594,15 +7570,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7651,19 +7629,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7680,14 +7658,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>108</v>
+        <v>409</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7700,24 +7678,26 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7765,7 +7745,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7783,7 +7763,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7794,46 +7774,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>109</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7881,25 +7857,25 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7910,10 +7886,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7921,7 +7897,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -7936,13 +7912,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>421</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7969,13 +7945,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7993,10 +7969,10 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>88</v>
@@ -8011,23 +7987,25 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
+      <c r="B56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8036,10 +8014,10 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
@@ -8048,13 +8026,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>173</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8081,13 +8059,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8105,13 +8083,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8123,7 +8101,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8132,16 +8110,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8150,10 +8126,10 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>77</v>
@@ -8162,13 +8138,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>103</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>410</v>
+        <v>104</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8219,25 +8195,25 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>412</v>
+        <v>106</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8248,21 +8224,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8274,15 +8250,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8331,19 +8309,19 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8360,14 +8338,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>108</v>
+        <v>409</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8380,24 +8358,26 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8445,7 +8425,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8463,7 +8443,7 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8474,46 +8454,42 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8561,25 +8537,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8590,10 +8566,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8601,7 +8577,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -8616,13 +8592,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8649,13 +8625,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8673,10 +8649,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -8691,129 +8667,17 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8823,7 +8687,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-person.xlsx
+++ b/main/ig/StructureDefinition-as-dr-person.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="430">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,9 +663,6 @@
 </t>
   </si>
   <si>
-    <t>PersonnePhysique.lieuNaissance</t>
-  </si>
-  <si>
     <t>Person.extension:as-ext-person-deceased-date-time</t>
   </si>
   <si>
@@ -680,9 +677,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
-  </si>
-  <si>
-    <t>PersonnePhysique.dateDeces</t>
   </si>
   <si>
     <t>Person.modifierExtension</t>
@@ -3998,7 +3992,7 @@
         <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4012,13 +4006,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>197</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -4040,13 +4034,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4112,7 +4106,7 @@
         <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4126,10 +4120,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4155,16 +4149,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4213,7 +4207,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4242,10 +4236,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4268,17 +4262,17 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4327,7 +4321,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4345,21 +4339,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4382,19 +4376,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4443,7 +4437,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4461,21 +4455,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4584,10 +4578,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4698,13 +4692,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
@@ -4726,13 +4720,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4812,10 +4806,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4841,16 +4835,16 @@
         <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4875,11 +4869,11 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4897,7 +4891,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4915,21 +4909,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4955,16 +4949,16 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5013,7 +5007,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5031,25 +5025,25 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5071,13 +5065,13 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5127,7 +5121,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5142,28 +5136,28 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5185,13 +5179,13 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5241,7 +5235,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5256,24 +5250,24 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5299,10 +5293,10 @@
         <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5332,28 +5326,28 @@
         <v>155</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5368,24 +5362,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5411,10 +5405,10 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5444,28 +5438,28 @@
         <v>155</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5483,21 +5477,21 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5520,17 +5514,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5579,7 +5573,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5597,21 +5591,21 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5634,19 +5628,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5695,7 +5689,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5713,21 +5707,21 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5836,10 +5830,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5950,13 +5944,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5978,13 +5972,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6064,10 +6058,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6093,10 +6087,10 @@
         <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6123,31 +6117,31 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6156,7 +6150,7 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6165,21 +6159,21 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6205,16 +6199,16 @@
         <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6263,7 +6257,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6281,21 +6275,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6321,16 +6315,16 @@
         <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6355,31 +6349,31 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6397,21 +6391,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6434,16 +6428,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6493,7 +6487,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6522,10 +6516,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6548,13 +6542,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6605,7 +6599,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6623,7 +6617,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6634,10 +6628,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6663,16 +6657,16 @@
         <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6697,13 +6691,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6721,7 +6715,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6736,24 +6730,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6776,19 +6770,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6852,24 +6846,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6892,19 +6886,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6953,7 +6947,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6971,21 +6965,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7008,13 +7002,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7065,7 +7059,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7083,21 +7077,21 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7120,17 +7114,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7179,7 +7173,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7197,7 +7191,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7208,10 +7202,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7234,17 +7228,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7293,7 +7287,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7311,10 +7305,10 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7322,10 +7316,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7348,13 +7342,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7393,7 +7387,7 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
@@ -7403,7 +7397,7 @@
         <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7421,7 +7415,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7432,10 +7426,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7544,10 +7538,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7658,14 +7652,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7687,16 +7681,16 @@
         <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7745,7 +7739,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7774,10 +7768,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7800,13 +7794,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7857,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -7875,7 +7869,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7886,10 +7880,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7915,10 +7909,10 @@
         <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7945,13 +7939,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7969,7 +7963,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7987,7 +7981,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7998,13 +7992,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8026,13 +8020,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8083,7 +8077,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8101,7 +8095,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8112,10 +8106,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8224,10 +8218,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8338,14 +8332,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8367,16 +8361,16 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8425,7 +8419,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8454,10 +8448,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8480,13 +8474,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8537,7 +8531,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -8555,7 +8549,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8566,10 +8560,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8595,10 +8589,10 @@
         <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8625,13 +8619,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8649,7 +8643,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8667,7 +8661,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
